--- a/medicine/Enfance/Lisette_(journal)/Lisette_(journal).xlsx
+++ b/medicine/Enfance/Lisette_(journal)/Lisette_(journal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Lisette est un périodique disparu des Éditions de Montsouris destiné aux jeunes lectrices de 7 à 15 ans, qui a paru de 1921 à 1942, puis de 1946 à 1973.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est tout d'abord dirigé par Monique Chollet jusqu'en 1969
 Des bandes dessinées y paraissent, comme Zette reporter. On y trouve aussi des bons, des primes, des objets. Parmi toutes ces offres, de nombreuses poupées, ainsi que des patrons, des jeux à découper, plier et monter jusqu'en 1969. 
@@ -522,7 +536,7 @@
 Autre document d'époque : l'entrevue avec Danielle Décuré, une des quatre femmes pilotes de ligne d'aviation civile, dans le numéro du 10 mars 1972 à une époque où le métier était exclusivement réservé aux hommes sur les lignes régulières et où les bourses d'entrée à l'École nationale de l'aviation civile était surtout accordées aux éléments masculins ce qui semble être toujours le cas. 
 L'hebdomadaire offre aussi des dossiers-nature rédigés entre autres par Allain Bougrain-Dubourg, des bandes dessinées  du tandem Henriette Bichonnier-François Bourgeon, ainsi que des pages pédagogiques sur l'actualité, et des pages de mode réalisées par Laure Boyer et Constance Poniatowski.
 De 1964 à 1974, le journal Lisette publie les aventures des Jumelles, série produite par deux femmes: la scénariste Henriette Robitaillie et la dessinatrice Janine Lay.
-Appartenant au groupe Bayard Presse, le journal est cédé en mai 1973 à la Société française de presse illustrée (SFPI), du groupe Chapelle et fusionne avec un autre périodique, Mlle Caroline pour devenir le magazine Lisette et Caroline qui disparait en 1974[1].
+Appartenant au groupe Bayard Presse, le journal est cédé en mai 1973 à la Société française de presse illustrée (SFPI), du groupe Chapelle et fusionne avec un autre périodique, Mlle Caroline pour devenir le magazine Lisette et Caroline qui disparait en 1974.
 </t>
         </is>
       </c>
